--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1845605.43614043</v>
+        <v>1870120.117611348</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1151840.918742178</v>
+        <v>1151840.918742179</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5405309.604256435</v>
+        <v>5405309.604256434</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="C2" t="n">
-        <v>13.00576294050474</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>18.31780124109495</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Y2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>47.13383555196372</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.16190956546853</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>23.44046883036203</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="W4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>217.5303482210153</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>82.96396779500076</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,31 +972,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="C6" t="n">
-        <v>104.5548181284784</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
-        <v>58.39471844666277</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>185.0333587736945</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,7 +1145,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1175,16 +1175,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>188.9257796665961</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3204995519502</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,13 +1379,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1427,16 +1427,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W11" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1449,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,19 +1494,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>156.7114550512848</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>51.72215467797748</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2126,28 +2126,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>78.23068545231035</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>82.69355372315668</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2360,31 +2360,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="24">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>70.60543266093984</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>83.03189205754168</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>37.83939432415846</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>90.50278177497621</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>19.72793538656374</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>19.00517942505801</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2883,16 +2883,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>52.62407629885327</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3111,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>114.1874672139941</v>
+        <v>150.2142914581905</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -3153,19 +3153,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3174,7 +3174,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,58 +3199,58 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,31 +3308,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>124.9488863009592</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3354,16 +3354,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>72.91538811094021</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,10 +3393,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>67.26859421163454</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3433,58 +3433,58 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>120.762787058325</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3633,22 +3633,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3782,19 +3782,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>102.3382270926889</v>
+        <v>212.285385643442</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>124.906780124857</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -3873,7 +3873,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>117.5398956129371</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3910,46 +3910,46 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3989,10 +3989,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>55.6659517772089</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>52.35798791179244</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>39.82778746869524</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.89093722176946</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="C2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="D2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="E2" t="n">
-        <v>38.75380293843134</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>31.80830218922787</v>
+        <v>34.85382110433888</v>
       </c>
       <c r="G2" t="n">
         <v>16.35099156787933</v>
@@ -4331,49 +4331,49 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
+        <v>4.28100232079598</v>
+      </c>
+      <c r="L2" t="n">
         <v>57.25840604064623</v>
       </c>
-      <c r="L2" t="n">
-        <v>108.0953086000985</v>
-      </c>
       <c r="M2" t="n">
-        <v>161.0727123199487</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="O2" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="S2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="T2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="U2" t="n">
-        <v>214.050116039799</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="V2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>214.050116039799</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>159.9970564337892</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="Y2" t="n">
-        <v>105.9439968277793</v>
+        <v>95.85238145955221</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="C3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="D3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="E3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="L3" t="n">
-        <v>4.28100232079598</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
         <v>55.11790488024824</v>
       </c>
       <c r="N3" t="n">
+        <v>55.11790488024824</v>
+      </c>
+      <c r="O3" t="n">
         <v>108.0953086000985</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>161.0727123199487</v>
-      </c>
-      <c r="P3" t="n">
-        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="S3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="U3" t="n">
-        <v>159.9970564337892</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="V3" t="n">
-        <v>105.9439968277793</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="W3" t="n">
-        <v>59.08819457959154</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="X3" t="n">
-        <v>5.035134973581694</v>
+        <v>166.4401811388256</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.035134973581694</v>
+        <v>166.4401811388256</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="C4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="D4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="E4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="F4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="G4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I4" t="n">
-        <v>4.28100232079598</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="J4" t="n">
         <v>4.28100232079598</v>
@@ -4504,34 +4504,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>138.8132928110667</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>138.8132928110667</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>138.8132928110667</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="W4" t="n">
-        <v>84.76023320505688</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="X4" t="n">
-        <v>84.76023320505688</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.70717359904702</v>
+        <v>58.33406192680583</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>247.340362388537</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
         <v>231.8830517671884</v>
@@ -4589,28 +4589,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238.2612061051368</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C6" t="n">
-        <v>132.6502787026334</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>132.6502787026334</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>132.6502787026334</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>132.6502787026334</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
         <v>656.0584510084244</v>
@@ -4671,25 +4671,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>446.0215048700907</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>446.0215048700907</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>238.2612061051368</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>577.2332497330343</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C8" t="n">
-        <v>518.2486856454962</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D8" t="n">
-        <v>518.2486856454962</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E8" t="n">
-        <v>518.2486856454962</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y8" t="n">
-        <v>577.2332497330343</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4887,46 +4887,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>498.6361606388412</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>498.6361606388412</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>263.4840524070985</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>20.03527576299844</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>677.1847609088302</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5005,7 +5005,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5063,28 +5063,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X11" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="Y11" t="n">
-        <v>262.7299197543128</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>862.8876260635219</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="C12" t="n">
-        <v>817.1412885554689</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="D12" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
         <v>20.03527576299844</v>
@@ -5127,43 +5127,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>862.8876260635219</v>
+        <v>632.3454119196033</v>
       </c>
       <c r="U12" t="n">
-        <v>862.8876260635219</v>
+        <v>404.1217936559924</v>
       </c>
       <c r="V12" t="n">
-        <v>862.8876260635219</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="W12" t="n">
-        <v>862.8876260635219</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="X12" t="n">
-        <v>862.8876260635219</v>
+        <v>168.9696854242497</v>
       </c>
       <c r="Y12" t="n">
-        <v>862.8876260635219</v>
+        <v>168.9696854242497</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5215,34 +5215,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5361,19 +5361,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5537,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>911.8125548258105</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>700.6811714053606</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="18">
@@ -5568,7 +5568,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C18" t="n">
         <v>817.1412885554689</v>
@@ -5601,43 +5601,43 @@
         <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="19">
@@ -5698,22 +5698,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="C20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X20" t="n">
-        <v>315.6850394389064</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>102.8099852548154</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C21" t="n">
-        <v>102.8099852548154</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="D21" t="n">
-        <v>102.8099852548154</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="E21" t="n">
-        <v>102.8099852548154</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F21" t="n">
-        <v>102.8099852548154</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G21" t="n">
-        <v>102.8099852548154</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5838,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
+        <v>249.2442489785619</v>
+      </c>
+      <c r="N21" t="n">
         <v>487.8483949674443</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>726.4525409563269</v>
       </c>
-      <c r="O21" t="n">
-        <v>781.4136778972854</v>
-      </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W21" t="n">
-        <v>518.4217842253022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>310.5702840197694</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>102.8099852548154</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5935,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>284.1276524520142</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X23" t="n">
-        <v>284.1276524520142</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y23" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>411.587349213889</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>237.1343199327619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>237.1343199327619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>237.1343199327619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>90.59976195964691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>90.59976195964691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>90.59976195964691</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6069,16 +6069,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
+        <v>304.2053859195205</v>
+      </c>
+      <c r="N24" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N24" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>880.1865574727153</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>645.0344492409727</v>
       </c>
       <c r="W24" t="n">
-        <v>619.4388494194218</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X24" t="n">
-        <v>411.587349213889</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y24" t="n">
-        <v>411.587349213889</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6257,19 +6257,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="V26" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W26" t="n">
         <v>720.6083788665362</v>
       </c>
-      <c r="V26" t="n">
-        <v>506.1786963984129</v>
-      </c>
-      <c r="W26" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.8157010833278</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C27" t="n">
-        <v>165.8157010833278</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D27" t="n">
-        <v>165.8157010833278</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="E27" t="n">
-        <v>165.8157010833278</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,10 +6312,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N27" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>872.6402042227814</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U27" t="n">
-        <v>644.4165859591706</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V27" t="n">
-        <v>409.2644777274278</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W27" t="n">
-        <v>165.8157010833278</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X27" t="n">
-        <v>165.8157010833278</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y27" t="n">
-        <v>165.8157010833278</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C29" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>738.7078125165641</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>718.7806050553886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6491,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>667.4527462414319</v>
+        <v>345.004439675971</v>
       </c>
       <c r="C30" t="n">
-        <v>667.4527462414319</v>
+        <v>345.004439675971</v>
       </c>
       <c r="D30" t="n">
-        <v>667.4527462414319</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E30" t="n">
-        <v>508.2152912359765</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F30" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>910.9015228855319</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V30" t="n">
-        <v>910.9015228855319</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W30" t="n">
-        <v>667.4527462414319</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X30" t="n">
-        <v>667.4527462414319</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y30" t="n">
-        <v>667.4527462414319</v>
+        <v>345.004439675971</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6661,10 +6661,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,22 +6719,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W32" t="n">
         <v>506.1786963984129</v>
@@ -6743,7 +6743,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>521.1447485139397</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C33" t="n">
-        <v>521.1447485139397</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D33" t="n">
-        <v>372.2103388526884</v>
+        <v>660.701031422288</v>
       </c>
       <c r="E33" t="n">
-        <v>256.869462878957</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
         <v>110.334904905842</v>
@@ -6780,13 +6780,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y33" t="n">
-        <v>521.1447485139397</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T35" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>601.5428246748836</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>601.5428246748836</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D36" t="n">
-        <v>627.7355178317791</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E36" t="n">
-        <v>468.4980628263236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>321.9635048532086</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>183.2326794358241</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
         <v>19.28114311021272</v>
@@ -7020,10 +7020,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M36" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
         <v>473.4149733950735</v>
@@ -7041,25 +7041,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>621.5222065529438</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>621.5222065529438</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>386.3700983212011</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
         <v>19.28114311021272</v>
@@ -7132,13 +7132,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7196,28 +7196,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U38" t="n">
-        <v>720.6083788665362</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X38" t="n">
-        <v>477.1596022224361</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7227,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>290.1981659616912</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C39" t="n">
-        <v>168.215552771464</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O39" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W39" t="n">
-        <v>290.1981659616912</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X39" t="n">
-        <v>290.1981659616912</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y39" t="n">
-        <v>290.1981659616912</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="40">
@@ -7372,10 +7372,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7430,31 +7430,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="W41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="X41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="Y41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="V41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="W41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="X41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>133.4044113554191</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="C42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
@@ -7494,46 +7494,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N42" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O42" t="n">
-        <v>860.4511411346975</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U42" t="n">
-        <v>368.5565195871618</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V42" t="n">
-        <v>133.4044113554191</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W42" t="n">
-        <v>133.4044113554191</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X42" t="n">
-        <v>133.4044113554191</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y42" t="n">
-        <v>133.4044113554191</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G43" t="n">
         <v>829.5248650203655</v>
@@ -7597,22 +7597,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y43" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7673,25 +7673,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V44" t="n">
-        <v>710.516763498309</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W44" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>499.5061853699102</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
         <v>19.28114311021272</v>
@@ -7728,19 +7728,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M45" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
         <v>894.6625969973069</v>
@@ -7755,22 +7755,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V45" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W45" t="n">
-        <v>720.6083788665362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X45" t="n">
-        <v>667.7215223899782</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y45" t="n">
-        <v>667.7215223899782</v>
+        <v>75.50937722860556</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="J46" t="n">
         <v>829.5248650203655</v>
@@ -7834,22 +7834,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="U46" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="V46" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="W46" t="n">
-        <v>964.0571555106362</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>923.8270671584188</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>273.6023800549303</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>287.1168215956966</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>284.7455247652193</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>189.1918456000683</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>184.8542410932831</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
         <v>196.1087734543942</v>
@@ -8076,7 +8076,7 @@
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8535,10 +8535,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8547,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,7 +8693,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9009,13 +9009,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9167,7 +9167,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9249,7 +9249,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>198.1125443848066</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N27" t="n">
-        <v>301.2485028631349</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,16 +10428,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10668,13 +10668,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N36" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>303.8835549304717</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,22 +11142,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P42" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11391,7 +11391,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23267,13 +23267,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>344.4597780394191</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23303,7 +23303,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>136.9555830739709</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23337,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>127.4196248553433</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>43.45327364353682</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23434,7 +23434,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23455,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>98.14696326317221</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23811,7 +23811,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23938,7 +23938,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>354.079835614828</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -24014,28 +24014,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24045,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24054,22 +24054,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>79.41439500309059</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>29.54189051333978</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24099,7 +24099,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,13 +24108,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24224,7 +24224,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>189.2921341996816</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,31 +24248,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="24">
@@ -24294,7 +24294,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24303,7 +24303,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>18.79120019047524</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24330,7 +24330,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24339,10 +24339,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
@@ -24409,13 +24409,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24497,19 +24497,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>115.4668728266928</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24528,22 +24528,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>119.8056861312425</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24570,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>109.6619469198454</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>387.1481103551477</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24731,7 +24731,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24762,7 +24762,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>128.4398861395808</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24771,16 +24771,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,13 +24807,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>173.3173057821215</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24853,7 +24853,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24901,7 +24901,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24932,7 +24932,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,22 +24968,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X32" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,19 +24999,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>43.45761324140682</v>
+        <v>7.430788997210414</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,19 +25041,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25062,7 +25062,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25138,7 +25138,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,31 +25196,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>244.7822143775099</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25242,16 +25242,16 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>39.32005612555625</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -25281,10 +25281,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>132.8961344831871</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25296,7 +25296,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.9909793584588</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25436,28 +25436,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>273.9090123488199</v>
       </c>
     </row>
     <row r="39">
@@ -25467,13 +25467,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>51.94571192999076</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25521,22 +25521,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25670,19 +25670,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>149.0074258151476</v>
+        <v>39.0602672643945</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>47.80171886345876</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25752,7 +25752,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>108.4014864680378</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,7 +25770,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
         <v>162.2271725074396</v>
@@ -25837,7 +25837,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25877,10 +25877,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,13 +25913,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25931,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25941,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>110.8672318726584</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25995,22 +25995,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>153.414997291685</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26044,7 +26044,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26074,7 +26074,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>188.1178019595862</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26086,7 +26086,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349116.0471510136</v>
+        <v>349116.0471510137</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>349116.0471510136</v>
+        <v>349116.0471510137</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="13">
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448193</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
         <v>257549.0424235651</v>
@@ -26326,7 +26326,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="G2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="H2" t="n">
         <v>257549.0424235651</v>
@@ -26338,7 +26338,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="K2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
       <c r="L2" t="n">
         <v>257549.0424235651</v>
@@ -26347,13 +26347,13 @@
         <v>257549.0424235651</v>
       </c>
       <c r="N2" t="n">
+        <v>257549.0424235652</v>
+      </c>
+      <c r="O2" t="n">
         <v>257549.0424235651</v>
       </c>
-      <c r="O2" t="n">
-        <v>257549.0424235653</v>
-      </c>
       <c r="P2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940139</v>
+        <v>17933.27925940137</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>350176.5876421471</v>
+        <v>347968.0377624266</v>
       </c>
       <c r="C4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="D4" t="n">
-        <v>307255.7689654693</v>
+        <v>304227.7958470787</v>
       </c>
       <c r="E4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="F4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="G4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="H4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="I4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="J4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="K4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="L4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="M4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="N4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="O4" t="n">
-        <v>28310.24133100992</v>
+        <v>25282.26821261927</v>
       </c>
       <c r="P4" t="n">
-        <v>28310.24133100991</v>
+        <v>25282.26821261927</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>231316.3429794663</v>
+        <v>233524.8928591864</v>
       </c>
       <c r="C6" t="n">
-        <v>220194.0117289207</v>
+        <v>223221.9848473114</v>
       </c>
       <c r="D6" t="n">
-        <v>280770.3339155887</v>
+        <v>283798.3070339795</v>
       </c>
       <c r="E6" t="n">
-        <v>214585.1323287935</v>
+        <v>217613.1054471841</v>
       </c>
       <c r="F6" t="n">
-        <v>214585.1323287935</v>
+        <v>217613.1054471842</v>
       </c>
       <c r="G6" t="n">
-        <v>214585.1323287936</v>
+        <v>217613.1054471842</v>
       </c>
       <c r="H6" t="n">
-        <v>214585.1323287935</v>
+        <v>217613.1054471842</v>
       </c>
       <c r="I6" t="n">
-        <v>214585.1323287936</v>
+        <v>217613.1054471842</v>
       </c>
       <c r="J6" t="n">
-        <v>200583.9001885142</v>
+        <v>203611.8733069049</v>
       </c>
       <c r="K6" t="n">
-        <v>166328.179395161</v>
+        <v>169356.1525135516</v>
       </c>
       <c r="L6" t="n">
-        <v>214585.1323287935</v>
+        <v>217613.1054471842</v>
       </c>
       <c r="M6" t="n">
-        <v>214585.1323287936</v>
+        <v>217613.1054471842</v>
       </c>
       <c r="N6" t="n">
-        <v>214585.1323287935</v>
+        <v>217613.1054471843</v>
       </c>
       <c r="O6" t="n">
-        <v>214585.1323287937</v>
+        <v>217613.1054471842</v>
       </c>
       <c r="P6" t="n">
-        <v>214585.1323287936</v>
+        <v>217613.1054471842</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.2213126535308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>352.2671288305028</v>
+        <v>311.7603627610578</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>396.9849362740401</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27436,7 +27436,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>274.2397294601852</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>316.2185716685193</v>
       </c>
       <c r="Y2" t="n">
-        <v>332.7254096461039</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>113.0206546399176</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27470,16 +27470,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>83.83098815326088</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.02399860067941</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27512,16 +27512,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>172.4288530710251</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>179.2880581394755</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>205.3077389352137</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.6700706164688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27558,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,19 +27591,19 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>262.8785605261289</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
-        <v>233.0104693266412</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.072124342145</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>189.3456975206961</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>332.3387697201343</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27676,7 +27676,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27692,31 +27692,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>121.2443095168949</v>
       </c>
       <c r="C6" t="n">
-        <v>68.15368085983737</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>36.78129424836629</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27813,13 +27813,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
-        <v>306.8781733243448</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>169.6496828469884</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,7 +27865,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27895,16 +27895,16 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,16 +27941,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>11.23894902822553</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>139.3744836089695</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28029,7 +28029,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>53.51252900994975</v>
@@ -34796,7 +34796,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34942,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>169.9091475161415</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35179,7 +35179,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
@@ -35255,10 +35255,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35267,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,19 +35495,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N12" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35729,13 +35729,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
@@ -35744,7 +35744,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,7 +35969,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35981,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>55.51629994036219</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36680,13 +36680,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>169.9067907798016</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N36" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>169.9091475161414</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37786,7 +37786,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,22 +37862,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P42" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38111,7 +38111,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1870120.117611348</v>
+        <v>1872443.789425215</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5405309.604256434</v>
+        <v>5405309.604256435</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>9.891109467671336</v>
       </c>
       <c r="G2" t="n">
-        <v>18.31780124109495</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>46.38724422570589</v>
+      </c>
+      <c r="C3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -750,58 +752,58 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>53.51252900994975</v>
-      </c>
-      <c r="H3" t="n">
-        <v>53.51252900994975</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>47.13383555196372</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.170977004479181</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -871,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>23.44046883036203</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -908,16 +910,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>82.96396779500076</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -953,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45.28887413297245</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,7 +986,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>79.58999068294982</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -993,7 +995,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1026,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="C7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>185.0333587736945</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,16 +1147,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>112.3204995519502</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1412,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1446,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>106.7776990973757</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1470,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>156.7114550512848</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1567,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1616,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S14" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T14" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G14" t="n">
+      <c r="V14" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I14" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>128.5725299197346</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,13 +1703,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.72215467797748</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1920,10 +1922,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1938,10 +1940,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2068,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>11.19305615617957</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2129,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2157,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>120.1832748619387</v>
       </c>
       <c r="E21" t="n">
-        <v>78.23068545231035</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2223,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>23.81301614990503</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>15.99445322380446</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>83.03189205754168</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2527,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,13 +2599,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,22 +2642,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>37.83939432415846</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>121.8430658505936</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2871,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>123.1386402295798</v>
       </c>
       <c r="D30" t="n">
-        <v>19.00517942505801</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2965,37 +2967,37 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3032,19 +3034,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3083,16 +3085,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,10 +3113,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>150.2142914581905</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3123,7 +3125,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>24.88156537268689</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -3153,19 +3155,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3308,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>52.42556848774752</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3345,28 +3347,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>67.26859421163454</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3548,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>79.41714906066387</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>184.6308886574542</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3700,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,28 +3821,28 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>124.906780124857</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3870,19 +3872,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>63.1601700331929</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3989,49 +3991,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>55.6659517772089</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>110.1044675570004</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -4113,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="C2" t="n">
         <v>41.79932185354235</v>
@@ -4316,7 +4318,7 @@
         <v>41.79932185354235</v>
       </c>
       <c r="F2" t="n">
-        <v>34.85382110433888</v>
+        <v>31.80830218922787</v>
       </c>
       <c r="G2" t="n">
         <v>16.35099156787933</v>
@@ -4340,7 +4342,7 @@
         <v>110.2358097604965</v>
       </c>
       <c r="N2" t="n">
-        <v>161.0727123199487</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="O2" t="n">
         <v>214.050116039799</v>
@@ -4352,28 +4354,28 @@
         <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>203.9585006715719</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="U2" t="n">
-        <v>203.9585006715719</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="V2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="W2" t="n">
-        <v>149.9054410655621</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="X2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
       <c r="Y2" t="n">
-        <v>95.85238145955221</v>
+        <v>41.79932185354235</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.3871215328157</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>112.3871215328157</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="D3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>112.3871215328157</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>58.33406192680583</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
-        <v>4.28100232079598</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>55.11790488024824</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="M3" t="n">
-        <v>55.11790488024824</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="N3" t="n">
-        <v>55.11790488024824</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
         <v>108.0953086000985</v>
@@ -4431,28 +4433,28 @@
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="U3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="V3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="W3" t="n">
-        <v>166.4401811388256</v>
+        <v>214.050116039799</v>
       </c>
       <c r="X3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="Y3" t="n">
-        <v>166.4401811388256</v>
+        <v>159.9970564337892</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="E4" t="n">
-        <v>58.33406192680583</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="F4" t="n">
-        <v>58.33406192680583</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="G4" t="n">
-        <v>58.33406192680583</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="H4" t="n">
-        <v>58.33406192680583</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="I4" t="n">
-        <v>58.33406192680583</v>
+        <v>80.82849811456629</v>
       </c>
       <c r="J4" t="n">
-        <v>4.28100232079598</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
         <v>4.28100232079598</v>
@@ -4519,19 +4521,19 @@
         <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>112.3871215328157</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.33406192680583</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="C5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="D5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="E5" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="F5" t="n">
         <v>559.1338160830064</v>
       </c>
-      <c r="C5" t="n">
-        <v>559.1338160830064</v>
-      </c>
-      <c r="D5" t="n">
-        <v>559.1338160830064</v>
-      </c>
-      <c r="E5" t="n">
-        <v>559.1338160830064</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>315.6850394389064</v>
       </c>
-      <c r="G5" t="n">
-        <v>231.8830517671884</v>
-      </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4601,16 +4603,16 @@
         <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817.1412885554689</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>511.7666217610367</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>352.5291667555812</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4653,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="7">
@@ -4699,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
         <v>19.28114311021272</v>
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>477.1596022224361</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>290.2572196227447</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>290.2572196227447</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4887,19 +4889,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4908,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V9" t="n">
-        <v>790.6398109613051</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W9" t="n">
-        <v>677.1847609088302</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>677.1847609088302</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>677.1847609088302</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4957,10 +4959,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C11" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>325.7766548071333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V11" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W11" t="n">
-        <v>812.6742080953335</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X11" t="n">
-        <v>569.2254314512334</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>569.2254314512334</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>168.9696854242497</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C12" t="n">
-        <v>168.9696854242497</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D12" t="n">
-        <v>20.03527576299844</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E12" t="n">
-        <v>20.03527576299844</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O12" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
         <v>964.0571555106362</v>
@@ -5145,25 +5147,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>632.3454119196033</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>404.1217936559924</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>168.9696854242497</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>168.9696854242497</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>168.9696854242497</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>168.9696854242497</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I13" t="n">
         <v>136.0777814360265</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F14" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5300,28 +5302,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y14" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="C15" t="n">
-        <v>817.1412885554689</v>
+        <v>593.6552238493341</v>
       </c>
       <c r="D15" t="n">
-        <v>668.2068788942177</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E15" t="n">
-        <v>508.9694238887622</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F15" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5385,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="16">
@@ -5431,10 +5433,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>911.8125548258105</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>700.6811714053606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>475.3318284112885</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>231.8830517671884</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W17" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X17" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>862.8876260635219</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5595,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
         <v>19.28114311021272</v>
@@ -5716,7 +5718,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>30.58726043968704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>30.58726043968704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>30.58726043968704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X20" t="n">
-        <v>30.58726043968704</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y20" t="n">
-        <v>30.58726043968704</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="21">
@@ -5805,13 +5807,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>587.9903182850353</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C21" t="n">
-        <v>587.9903182850353</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D21" t="n">
-        <v>587.9903182850353</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E21" t="n">
         <v>508.9694238887622</v>
@@ -5838,16 +5840,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>249.2442489785619</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>487.8483949674443</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>726.4525409563269</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>909.0960185696777</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5871,10 +5873,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y21" t="n">
-        <v>756.2056553051034</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5944,16 +5946,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6014,25 +6016,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W23" t="n">
-        <v>710.516763498309</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X23" t="n">
-        <v>467.067986854209</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>947.901142153258</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>745.714547512024</v>
       </c>
       <c r="U24" t="n">
-        <v>880.1865574727153</v>
+        <v>517.4909292484131</v>
       </c>
       <c r="V24" t="n">
-        <v>645.0344492409727</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="W24" t="n">
-        <v>401.5856725968725</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="X24" t="n">
-        <v>193.7341723913397</v>
+        <v>282.3388210166704</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>282.3388210166704</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>547.1910343172051</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>840.9833516211477</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>638.7967569799137</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>395.3479803358136</v>
       </c>
       <c r="X27" t="n">
-        <v>547.1910343172051</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y27" t="n">
-        <v>547.1910343172051</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6500,13 +6502,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>345.004439675971</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="C30" t="n">
-        <v>345.004439675971</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D30" t="n">
-        <v>325.807288741569</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6548,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
         <v>712.019119383956</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W30" t="n">
-        <v>345.004439675971</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X30" t="n">
-        <v>345.004439675971</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y30" t="n">
-        <v>345.004439675971</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="C33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="D33" t="n">
-        <v>660.701031422288</v>
+        <v>579.9706376176423</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>420.7331826121868</v>
       </c>
       <c r="F33" t="n">
-        <v>362.4348659156472</v>
+        <v>274.1986246390718</v>
       </c>
       <c r="G33" t="n">
-        <v>223.7040404982626</v>
+        <v>135.4677992216873</v>
       </c>
       <c r="H33" t="n">
         <v>110.334904905842</v>
@@ -6780,13 +6782,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y33" t="n">
-        <v>660.701031422288</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="34">
@@ -6889,13 +6891,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
         <v>19.28114311021272</v>
@@ -6914,10 +6916,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
         <v>262.7299197543128</v>
@@ -6956,13 +6958,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
         <v>749.627473042513</v>
@@ -6971,16 +6973,16 @@
         <v>749.627473042513</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>178.5185981156682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C36" t="n">
-        <v>178.5185981156682</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D36" t="n">
-        <v>178.5185981156682</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7020,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>621.5222065529438</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>621.5222065529438</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>386.3700983212011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>386.3700983212011</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>178.5185981156682</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y36" t="n">
-        <v>178.5185981156682</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J37" t="n">
         <v>19.28114311021272</v>
@@ -7132,13 +7134,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7196,25 +7198,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>376.1934816808115</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>376.1934816808115</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V38" t="n">
-        <v>132.7447050367114</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W38" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>193.7341723913397</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7263,40 +7265,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>883.8378130251172</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>710.420468475786</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>710.420468475786</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>710.420468475786</v>
       </c>
       <c r="V39" t="n">
-        <v>964.0571555106362</v>
+        <v>710.420468475786</v>
       </c>
       <c r="W39" t="n">
-        <v>777.5613083818946</v>
+        <v>710.420468475786</v>
       </c>
       <c r="X39" t="n">
-        <v>569.7098081763618</v>
+        <v>710.420468475786</v>
       </c>
       <c r="Y39" t="n">
-        <v>361.9495094114078</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7442,19 +7444,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>145.4496078827955</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C42" t="n">
-        <v>19.28114311021272</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D42" t="n">
-        <v>19.28114311021272</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E42" t="n">
-        <v>19.28114311021272</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M42" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N42" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
@@ -7518,22 +7520,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>588.4532163200711</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="U42" t="n">
-        <v>588.4532163200711</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="V42" t="n">
-        <v>353.3011080883284</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="W42" t="n">
-        <v>353.3011080883284</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="X42" t="n">
-        <v>145.4496078827955</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="Y42" t="n">
-        <v>145.4496078827955</v>
+        <v>726.8416594126254</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V44" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X44" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>19.28114311021272</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C45" t="n">
-        <v>19.28114311021272</v>
+        <v>279.432186667424</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>130.4977770061727</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>130.4977770061727</v>
       </c>
       <c r="F45" t="n">
         <v>19.28114311021272</v>
@@ -7749,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T45" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U45" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V45" t="n">
-        <v>526.7184526376595</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W45" t="n">
-        <v>283.2696759935595</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X45" t="n">
-        <v>283.2696759935595</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y45" t="n">
-        <v>75.50937722860556</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>923.8270671584188</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.8270671584188</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7988,10 +7990,10 @@
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
-        <v>283.6107404316365</v>
+        <v>281.4486180473961</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8058,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>189.1918456000683</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>182.6921187090427</v>
       </c>
       <c r="O3" t="n">
-        <v>196.1087734543942</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.0431814381598</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,10 +8537,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8547,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8930,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9006,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9167,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9261,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.4980740263837</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10196,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N33" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10668,19 +10670,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5053919605859</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10911,16 +10913,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,13 +23269,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>344.4597780394191</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23300,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>264.8211809382518</v>
       </c>
       <c r="X11" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>59.75548455249167</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -23358,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23385,16 +23387,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>43.45327364353682</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23455,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23540,19 +23542,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>18.8725356449041</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23589,13 +23591,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,7 +23627,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,28 +23779,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>98.14696326317221</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23808,10 +23810,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23826,10 +23828,10 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>81.55953011607103</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23956,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>354.079835614828</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24017,16 +24019,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24045,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>27.2617907027001</v>
       </c>
       <c r="E21" t="n">
-        <v>79.41439500309059</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -24111,7 +24113,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24139,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>315.6617859658621</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24254,25 +24256,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,10 +24287,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>155.6887178800334</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>142.9094900234331</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24415,7 +24417,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
         <v>286.3190293564909</v>
@@ -24440,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24451,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24458,7 +24460,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,13 +24487,13 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T26" t="n">
         <v>223.0958495641314</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24528,22 +24530,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>119.8056861312425</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,10 +24572,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>49.84010525324418</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24585,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24759,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>49.56985875873589</v>
       </c>
       <c r="D30" t="n">
-        <v>128.4398861395808</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,13 +24809,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24853,7 +24855,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H31" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I31" t="n">
         <v>155.4504749272583</v>
@@ -24883,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24920,19 +24922,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.397655977241</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24971,16 +24973,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,10 +25001,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>7.430788997210414</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25011,7 +25013,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.35387886380957</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,19 +25043,19 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25138,7 +25140,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25196,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>170.6702810763838</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25233,28 +25235,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25280,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>132.8961344831871</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25315,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>108.7876855495171</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25333,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25436,28 +25438,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>273.9090123488199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>20.74068509197926</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25530,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>67.06409450346541</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25588,10 +25590,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25603,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>242.0155457579237</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25682,7 +25684,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,28 +25709,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>47.80171886345876</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25758,19 +25760,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>137.0045586616287</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25837,7 +25839,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T43" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
         <v>286.3190293564909</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25877,16 +25879,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>214.9666412263055</v>
       </c>
       <c r="H44" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110.8672318726584</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>34.96474483638349</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,16 +26003,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
@@ -26044,7 +26046,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
         <v>22.26949182588285</v>
@@ -26074,7 +26076,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>188.1178019595862</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
         <v>286.3190293564909</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349116.0471510136</v>
+        <v>349116.0471510137</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349116.0471510136</v>
+        <v>349116.0471510137</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349116.0471510136</v>
+        <v>349116.0471510137</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349116.0471510136</v>
+        <v>349116.0471510137</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349116.0471510136</v>
+        <v>349116.0471510137</v>
       </c>
     </row>
     <row r="16">
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448193</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>257549.0424235651</v>
@@ -26353,7 +26355,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="P2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17933.27925940137</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
         <v>60576.32218666811</v>
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>233524.8928591864</v>
+        <v>233524.8928591866</v>
       </c>
       <c r="C6" t="n">
-        <v>223221.9848473114</v>
+        <v>223221.9848473111</v>
       </c>
       <c r="D6" t="n">
-        <v>283798.3070339795</v>
+        <v>283798.3070339792</v>
       </c>
       <c r="E6" t="n">
         <v>217613.1054471841</v>
@@ -26537,7 +26539,7 @@
         <v>217613.1054471842</v>
       </c>
       <c r="H6" t="n">
-        <v>217613.1054471842</v>
+        <v>217613.1054471841</v>
       </c>
       <c r="I6" t="n">
         <v>217613.1054471842</v>
@@ -26546,19 +26548,19 @@
         <v>203611.8733069049</v>
       </c>
       <c r="K6" t="n">
-        <v>169356.1525135516</v>
+        <v>169356.1525135515</v>
       </c>
       <c r="L6" t="n">
+        <v>217613.1054471841</v>
+      </c>
+      <c r="M6" t="n">
+        <v>217613.1054471841</v>
+      </c>
+      <c r="N6" t="n">
         <v>217613.1054471842</v>
       </c>
-      <c r="M6" t="n">
-        <v>217613.1054471842</v>
-      </c>
-      <c r="N6" t="n">
-        <v>217613.1054471843</v>
-      </c>
       <c r="O6" t="n">
-        <v>217613.1054471842</v>
+        <v>217613.1054471841</v>
       </c>
       <c r="P6" t="n">
         <v>217613.1054471842</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>311.7603627610578</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27390,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>396.9849362740401</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>396.9849362740401</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27424,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27442,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>316.2185716685193</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,13 +27457,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.0206546399176</v>
+        <v>120.1459394241614</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>119.195969978366</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>93.93253655468899</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27470,16 +27472,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>83.83098815326088</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.02399860067941</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>144.2500710184521</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27561,7 +27563,7 @@
         <v>39.84665110672302</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27591,10 +27593,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>262.8785605261289</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>198.6251143138782</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27628,16 +27630,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>332.3387697201343</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>121.2443095168949</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,7 +27706,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>65.47922171043406</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27713,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,7 +27748,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>49.36645333167576</v>
       </c>
       <c r="C7" t="n">
-        <v>36.78129424836629</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>169.6496828469884</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,16 +27867,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>106.6417163796168</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27941,19 +27943,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,22 +27982,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>139.3744836089695</v>
+        <v>181.0464140131996</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28029,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570936</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34778,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>53.51252900994975</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>51.35040662570935</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>53.51252900994975</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,7 +35023,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9091475161415</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,10 +35257,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35267,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>169.9067907798017</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35658,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35726,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -35963,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35981,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.51629994036219</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,16 +36676,16 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161414</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_3_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1872443.789425215</v>
+        <v>1803592.492983779</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14661612.74404854</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5405309.604256435</v>
+        <v>5405309.604256434</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>9.891109467671336</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -706,19 +706,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="V2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.38724422570589</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>46.38724422570588</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -825,10 +825,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.170977004479181</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>26.16190956546851</v>
       </c>
     </row>
     <row r="5">
@@ -910,13 +910,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>103.0088977318019</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>40.47627913313511</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -946,7 +946,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -986,13 +986,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>79.58999068294982</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>12.41656858543522</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>87.7061602166668</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1214,28 +1214,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>106.7776990973757</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>85.16609612936156</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1511,13 +1511,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1651,28 +1651,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>21.18375537072436</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>128.5725299197346</v>
+        <v>66.95039176927961</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1703,13 +1703,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>55.6659517772089</v>
       </c>
       <c r="I18" t="n">
-        <v>7.83710273534405</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1976,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2162,28 +2162,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>120.1832748619387</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>98.09531059045651</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2219,13 +2219,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2253,55 +2253,55 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2329,16 +2329,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
-        <v>23.81301614990503</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>125.1456920076454</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>15.99445322380446</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -2456,7 +2456,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2487,58 +2487,58 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>17.91161276850415</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>121.8430658505936</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -2693,16 +2693,16 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2730,40 +2730,40 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>123.1386402295798</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>124.1203641231673</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3113,22 +3113,22 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>24.88156537268689</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>64.38401073897953</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,10 +3173,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,70 +3265,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
+      <c r="I35" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J35" t="n">
+        <v>9.737236172019017</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,31 +3344,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>53.57063283035821</v>
       </c>
       <c r="C36" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3404,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3547,25 +3547,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>10.50781981482313</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>79.41714906066387</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3739,70 +3739,70 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S41" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T41" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3821,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>63.1601700331929</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>231.0982382304873</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>200.3360962888296</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4000,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>110.1044675570004</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>133.0992172310515</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4121,10 +4121,10 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.79932185354235</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="C2" t="n">
-        <v>41.79932185354235</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="D2" t="n">
-        <v>41.79932185354235</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="E2" t="n">
-        <v>41.79932185354235</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="F2" t="n">
-        <v>31.80830218922787</v>
+        <v>85.86136179523774</v>
       </c>
       <c r="G2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35099156787933</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="I2" t="n">
         <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K2" t="n">
-        <v>4.28100232079598</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L2" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="O2" t="n">
         <v>214.050116039799</v>
@@ -4351,7 +4351,7 @@
         <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>203.9585006715719</v>
+        <v>203.958500671572</v>
       </c>
       <c r="R2" t="n">
         <v>149.9054410655621</v>
@@ -4360,22 +4360,22 @@
         <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>95.85238145955221</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="U2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="V2" t="n">
-        <v>41.79932185354235</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="W2" t="n">
-        <v>41.79932185354235</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="X2" t="n">
-        <v>41.79932185354235</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.79932185354235</v>
+        <v>92.80686254444122</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="C3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="D3" t="n">
+        <v>159.9970564337892</v>
+      </c>
+      <c r="E3" t="n">
         <v>113.1412541856014</v>
       </c>
-      <c r="C3" t="n">
-        <v>59.08819457959154</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.035134973581694</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5.035134973581694</v>
-      </c>
       <c r="F3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="G3" t="n">
-        <v>5.035134973581694</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="H3" t="n">
-        <v>5.035134973581694</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="I3" t="n">
-        <v>5.035134973581694</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="J3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K3" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L3" t="n">
-        <v>57.25840604064623</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="M3" t="n">
-        <v>57.25840604064623</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>108.0953086000985</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
@@ -4439,16 +4439,16 @@
         <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="V3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="W3" t="n">
-        <v>214.050116039799</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="X3" t="n">
         <v>159.9970564337892</v>
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="D4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="E4" t="n">
-        <v>82.01130316959576</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="F4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="G4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="H4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I4" t="n">
-        <v>80.82849811456629</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J4" t="n">
-        <v>26.77543850855644</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K4" t="n">
-        <v>4.28100232079598</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L4" t="n">
         <v>31.59512732850896</v>
@@ -4506,34 +4506,34 @@
         <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505686</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505686</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505686</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>84.76023320505686</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>30.707173599047</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>4.281002320795981</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F5" t="n">
-        <v>559.1338160830064</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="G5" t="n">
-        <v>315.6850394389064</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>72.23626279480629</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D6" t="n">
-        <v>511.7666217610367</v>
+        <v>338.3492772117056</v>
       </c>
       <c r="E6" t="n">
-        <v>352.5291667555812</v>
+        <v>179.1118222062501</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>32.57726423313503</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4655,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y6" t="n">
-        <v>660.701031422288</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>710.516763498309</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>467.067986854209</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M9" t="n">
         <v>304.2053859195205</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>298.4948343740486</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5062,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T11" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U11" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V11" t="n">
-        <v>591.4512093066566</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W11" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X11" t="n">
-        <v>262.7299197543128</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y11" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>648.4405950311615</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="C12" t="n">
-        <v>473.9875657500345</v>
+        <v>344.5415416409353</v>
       </c>
       <c r="D12" t="n">
-        <v>325.0531560887832</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="E12" t="n">
-        <v>165.8157010833278</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>195.6071319796841</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I12" t="n">
         <v>19.28114311021272</v>
@@ -5126,16 +5126,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M12" t="n">
-        <v>473.4149733950735</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N12" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O12" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P12" t="n">
         <v>894.6625969973069</v>
@@ -5159,13 +5159,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X12" t="n">
-        <v>964.0571555106362</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y12" t="n">
-        <v>756.2968567456824</v>
+        <v>512.7568786610034</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5217,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>262.7299197543128</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V14" t="n">
-        <v>19.28114311021272</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W14" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X14" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y14" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>593.6552238493341</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C15" t="n">
-        <v>593.6552238493341</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="D15" t="n">
-        <v>463.7839815061678</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E15" t="n">
-        <v>304.5465265007123</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F15" t="n">
-        <v>158.0119685275972</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N15" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
         <v>712.019119383956</v>
@@ -5387,22 +5387,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V15" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W15" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X15" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y15" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
         <v>19.28114311021272</v>
@@ -5466,22 +5466,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
         <v>19.28114311021272</v>
@@ -5539,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X17" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>795.8418184905681</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="C18" t="n">
-        <v>621.3887892094411</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="D18" t="n">
-        <v>472.4543795481899</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="E18" t="n">
-        <v>313.2169245427344</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="F18" t="n">
-        <v>166.6823665696193</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="G18" t="n">
-        <v>27.95154115223485</v>
+        <v>75.50937722860556</v>
       </c>
       <c r="H18" t="n">
-        <v>27.95154115223485</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>75.50937722860556</v>
       </c>
     </row>
     <row r="19">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
-        <v>953.9655401424092</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C21" t="n">
-        <v>789.6041262295092</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>118.3673154238052</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5867,16 +5867,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="22">
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
         <v>19.28114311021272</v>
@@ -5949,13 +5949,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>255.9366034337592</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>255.9366034337592</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>742.8341567219593</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U23" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>499.3853800778592</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>499.3853800778592</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>282.3388210166704</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C24" t="n">
-        <v>282.3388210166704</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D24" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E24" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F24" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G24" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>947.901142153258</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T24" t="n">
-        <v>745.714547512024</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U24" t="n">
-        <v>517.4909292484131</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V24" t="n">
-        <v>282.3388210166704</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W24" t="n">
-        <v>282.3388210166704</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X24" t="n">
-        <v>282.3388210166704</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y24" t="n">
-        <v>282.3388210166704</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
         <v>19.28114311021272</v>
@@ -6186,13 +6186,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="C26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>495.259035872464</v>
       </c>
       <c r="G26" t="n">
         <v>262.7299197543128</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>749.627473042513</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>495.259035872464</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>150.7428168526376</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>150.7428168526376</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>150.7428168526376</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>150.7428168526376</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>150.7428168526376</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>150.7428168526376</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>37.37368126021691</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>840.9833516211477</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>638.7967569799137</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>638.7967569799137</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>638.7967569799137</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W27" t="n">
-        <v>395.3479803358136</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4964801302808</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="Y27" t="n">
-        <v>187.4964801302808</v>
+        <v>318.9581538727056</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>233.7108255783361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>290.1981659616912</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C30" t="n">
-        <v>165.8157010833278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D30" t="n">
-        <v>165.8157010833278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>737.5135208886054</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>535.3269262473714</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="V30" t="n">
-        <v>533.6469426057913</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="W30" t="n">
-        <v>290.1981659616912</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="X30" t="n">
-        <v>290.1981659616912</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="Y30" t="n">
-        <v>290.1981659616912</v>
+        <v>307.1033079837604</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="C32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="Y32" t="n">
-        <v>964.0571555106362</v>
+        <v>962.2293816994886</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C33" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>579.9706376176423</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>420.7331826121868</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>274.1986246390718</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>135.4677992216873</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
         <v>20.03527576299844</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>899.0228012288387</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>670.7991829652278</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="W33" t="n">
-        <v>728.9050472788936</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X33" t="n">
-        <v>728.9050472788936</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y33" t="n">
-        <v>728.9050472788936</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>485.167420504237</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>29.11673520316123</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W35" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C36" t="n">
-        <v>817.1412885554689</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D36" t="n">
-        <v>668.2068788942177</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,46 +7022,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>419.8840176262463</v>
       </c>
       <c r="Y36" t="n">
-        <v>964.0571555106362</v>
+        <v>212.1237188612924</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
         <v>19.28114311021272</v>
@@ -7128,19 +7128,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>251.810259228364</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>502.6601697108322</v>
+        <v>279.432186667424</v>
       </c>
       <c r="C39" t="n">
-        <v>328.2071404297052</v>
+        <v>279.432186667424</v>
       </c>
       <c r="D39" t="n">
-        <v>179.2727307684539</v>
+        <v>279.432186667424</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>120.1947316619685</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>120.1947316619685</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7262,43 +7262,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>613.2059550252818</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>883.8378130251172</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>710.420468475786</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>710.420468475786</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>710.420468475786</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>710.420468475786</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>710.420468475786</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>710.420468475786</v>
+        <v>279.432186667424</v>
       </c>
       <c r="Y39" t="n">
-        <v>502.6601697108322</v>
+        <v>279.432186667424</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7350,34 +7350,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>964.0571555106362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C41" t="n">
-        <v>720.6083788665362</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D41" t="n">
-        <v>477.1596022224361</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y41" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>726.8416594126254</v>
+        <v>456.0377176450116</v>
       </c>
       <c r="C42" t="n">
-        <v>726.8416594126254</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D42" t="n">
-        <v>577.9072497513741</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E42" t="n">
-        <v>418.6697947459187</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>272.1352367728036</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>133.4044113554191</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T42" t="n">
-        <v>726.8416594126254</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U42" t="n">
-        <v>726.8416594126254</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V42" t="n">
-        <v>726.8416594126254</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W42" t="n">
-        <v>726.8416594126254</v>
+        <v>456.0377176450116</v>
       </c>
       <c r="X42" t="n">
-        <v>726.8416594126254</v>
+        <v>456.0377176450116</v>
       </c>
       <c r="Y42" t="n">
-        <v>726.8416594126254</v>
+        <v>456.0377176450116</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
         <v>19.28114311021272</v>
@@ -7614,7 +7614,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D44" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E44" t="n">
-        <v>233.7108255783361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F44" t="n">
-        <v>233.7108255783361</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V44" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="W44" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="X44" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y44" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>279.432186667424</v>
+        <v>588.0815197256143</v>
       </c>
       <c r="C45" t="n">
-        <v>279.432186667424</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="D45" t="n">
-        <v>130.4977770061727</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="E45" t="n">
-        <v>130.4977770061727</v>
+        <v>413.6284904444873</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>267.0939324713722</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
         <v>19.28114311021272</v>
@@ -7730,49 +7730,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>19.28114311021272</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>234.810827406191</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N45" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X45" t="n">
-        <v>279.432186667424</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y45" t="n">
-        <v>279.432186667424</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="46">
@@ -7797,10 +7797,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7981,19 +7981,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
-        <v>283.8587622372225</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>282.9255926065406</v>
+        <v>282.9255926065407</v>
       </c>
       <c r="O2" t="n">
-        <v>281.4486180473961</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -8066,19 +8066,19 @@
         <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>182.6921187090427</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
@@ -8774,19 +8774,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -9008,19 +9008,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>357.7767872515269</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>357.7767872515269</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,7 +9962,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10670,7 +10670,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,13 +10679,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>312.5053919605859</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10910,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>312.5030352242461</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11141,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>359.8407857361378</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,16 +11378,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>383.6105333221035</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>264.8211809382518</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>59.75548455249167</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>52.17742103384907</v>
       </c>
       <c r="H12" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23399,13 +23399,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
         <v>86.16204325169439</v>
@@ -23466,7 +23466,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23539,28 +23539,28 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>18.8725356449041</v>
+        <v>80.49467379535915</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23591,13 +23591,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23673,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>415.302737515135</v>
@@ -23779,7 +23779,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23788,19 +23788,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>188.9293852055442</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X17" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>56.56949245928756</v>
       </c>
       <c r="I18" t="n">
-        <v>81.55953011607103</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23864,22 +23864,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23971,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24050,28 +24050,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>27.2617907027001</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>46.97390180292737</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24107,13 +24107,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H22" t="n">
         <v>162.2271725074396</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24217,16 +24217,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>315.6617859658621</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>230.1618975371121</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24290,7 +24290,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>22.2993735569934</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>155.6887178800334</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -24344,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.9909793584588</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24451,13 +24451,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>185.0989125581653</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24539,10 +24539,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>71.48502008291094</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>49.84010525324418</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24581,16 +24581,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>130.9839860506966</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,7 +24697,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24739,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>49.56985875873589</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24770,13 +24770,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>47.56280698067049</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24821,7 +24821,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24846,7 +24846,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,7 +24885,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.397655977241</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24964,7 +24964,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>148.0596218681135</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25001,22 +25001,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>87.35387886380957</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>135.7807179558421</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,16 +25168,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>2.2120531825935</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25232,31 +25232,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>112.9625508195091</v>
       </c>
       <c r="C36" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25292,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>108.7876855495171</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25335,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25368,7 +25368,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25393,7 +25393,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25435,25 +25435,25 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25472,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>126.8356973483875</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>20.74068509197926</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25535,10 +25535,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25590,10 +25590,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25605,7 +25605,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>242.0155457579237</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>292.3449039254042</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25709,19 +25709,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>137.0045586616287</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25769,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>20.59674493043227</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G43" t="n">
         <v>167.9909793584588</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>214.9666412263055</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25924,10 +25924,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>34.96474483638349</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>4.24429993215918</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25991,13 +25991,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
@@ -26009,10 +26009,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>349116.0471510136</v>
+        <v>349116.0471510137</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>349116.0471510137</v>
+        <v>349116.0471510136</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448197</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.3716448195</v>
       </c>
-      <c r="C2" t="n">
-        <v>636307.3716448196</v>
-      </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
         <v>257549.0424235651</v>
       </c>
       <c r="F2" t="n">
-        <v>257549.0424235651</v>
+        <v>257549.0424235652</v>
       </c>
       <c r="G2" t="n">
         <v>257549.0424235651</v>
@@ -26355,7 +26355,7 @@
         <v>257549.0424235651</v>
       </c>
       <c r="P2" t="n">
-        <v>257549.0424235652</v>
+        <v>257549.0424235651</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>233524.8928591866</v>
+        <v>233524.8928591868</v>
       </c>
       <c r="C6" t="n">
         <v>223221.9848473111</v>
       </c>
       <c r="D6" t="n">
-        <v>283798.3070339792</v>
+        <v>283798.3070339794</v>
       </c>
       <c r="E6" t="n">
-        <v>217613.1054471841</v>
+        <v>205395.0948271437</v>
       </c>
       <c r="F6" t="n">
-        <v>217613.1054471842</v>
+        <v>205395.0948271438</v>
       </c>
       <c r="G6" t="n">
-        <v>217613.1054471842</v>
+        <v>205395.0948271437</v>
       </c>
       <c r="H6" t="n">
-        <v>217613.1054471841</v>
+        <v>205395.0948271437</v>
       </c>
       <c r="I6" t="n">
-        <v>217613.1054471842</v>
+        <v>205395.0948271437</v>
       </c>
       <c r="J6" t="n">
-        <v>203611.8733069049</v>
+        <v>191393.8626868644</v>
       </c>
       <c r="K6" t="n">
-        <v>169356.1525135515</v>
+        <v>157138.1418935111</v>
       </c>
       <c r="L6" t="n">
-        <v>217613.1054471841</v>
+        <v>205395.0948271437</v>
       </c>
       <c r="M6" t="n">
-        <v>217613.1054471841</v>
+        <v>205395.0948271437</v>
       </c>
       <c r="N6" t="n">
-        <v>217613.1054471842</v>
+        <v>205395.0948271438</v>
       </c>
       <c r="O6" t="n">
-        <v>217613.1054471841</v>
+        <v>205395.0948271437</v>
       </c>
       <c r="P6" t="n">
-        <v>217613.1054471842</v>
+        <v>205395.0948271437</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
         <v>187.5017598677093</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
         <v>187.5017598677093</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>396.9849362740401</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>169.5833205541816</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>248.3305891818766</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2397294601852</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120.1459394241614</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>119.195969978366</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>93.93253655468899</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>111.2578362296951</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.7229152265467</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>35.88410384146532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27523,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>152.2604561935277</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27545,10 +27545,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>92.92143363661941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2500710184521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>39.84665110672302</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>172.1971263790874</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>192.4227437866263</v>
       </c>
     </row>
     <row r="5">
@@ -27630,13 +27630,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>312.2938397833332</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>169.9996104372708</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27706,13 +27706,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>65.47922171043406</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>124.9269485777754</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>59.79494433408007</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>319.1698855250446</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>106.6417163796168</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27934,28 +27934,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,19 +27985,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>181.0464140131996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28064,7 +28064,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.6421058297144</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34701,19 +34701,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="M2" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="O2" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="N3" t="n">
-        <v>51.35040662570935</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P3" t="n">
-        <v>53.51252900994975</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,7 +35023,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35181,13 +35181,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35661,7 +35661,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P14" t="n">
         <v>90.5657124162131</v>
@@ -35728,19 +35728,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N15" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N21" t="n">
-        <v>226.4350751681936</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36694,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,13 +37399,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>169.9091475161414</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37630,19 +37630,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>169.9067907798016</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>241.0142888776591</v>
@@ -38116,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
